--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2763.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2763.xlsx
@@ -354,7 +354,7 @@
         <v>2.424303828279134</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.369426054871936</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2763.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2763.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164459053259314</v>
+        <v>1.764948844909668</v>
       </c>
       <c r="B1">
-        <v>2.424303828279134</v>
+        <v>1.925398588180542</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.191864728927612</v>
       </c>
       <c r="D1">
-        <v>2.369426054871936</v>
+        <v>3.495029449462891</v>
       </c>
       <c r="E1">
-        <v>1.224938685421792</v>
+        <v>2.358052492141724</v>
       </c>
     </row>
   </sheetData>
